--- a/data/Spreadsheet_Data/Video.xlsx
+++ b/data/Spreadsheet_Data/Video.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielasubotic/Documents/GitHub/daschland-scripts/data/Spreadsheet_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE87AE8B-7F1F-3849-93D9-9065F8BB6B37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1C4821-4CBB-704F-BBC1-28A3E736EC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16000" yWindow="3480" windowWidth="27240" windowHeight="16440" xr2:uid="{FB367DDF-D7DA-7347-9072-9090877C5E32}"/>
+    <workbookView xWindow="16000" yWindow="3480" windowWidth="39880" windowHeight="20780" xr2:uid="{FB367DDF-D7DA-7347-9072-9090877C5E32}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -36,22 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
-  <si>
-    <t>hasID</t>
-  </si>
-  <si>
-    <t>hasFilename</t>
-  </si>
-  <si>
-    <t>hasTimeStamp</t>
-  </si>
-  <si>
-    <t>hasCopyright</t>
-  </si>
-  <si>
-    <t>hasDate</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
   <si>
     <t>Label</t>
   </si>
@@ -86,7 +70,22 @@
     <t>CC BY 4.0</t>
   </si>
   <si>
-    <t>hasLicenseList</t>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>File Name</t>
+  </si>
+  <si>
+    <t>Time Stamp</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>License List</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
 </sst>
 </file>
@@ -474,8 +473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17D601B5-DC4A-C440-A621-F73CB7198326}">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" zoomScale="163" zoomScaleNormal="163" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -490,65 +489,68 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/data/Spreadsheet_Data/Video.xlsx
+++ b/data/Spreadsheet_Data/Video.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielasubotic/Documents/GitHub/daschland-scripts/data/Spreadsheet_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1C4821-4CBB-704F-BBC1-28A3E736EC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473F35E8-634F-8D4E-955E-E7D40E0B2143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16000" yWindow="3480" windowWidth="39880" windowHeight="20780" xr2:uid="{FB367DDF-D7DA-7347-9072-9090877C5E32}"/>
+    <workbookView xWindow="36840" yWindow="6340" windowWidth="39880" windowHeight="20780" xr2:uid="{FB367DDF-D7DA-7347-9072-9090877C5E32}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Label</t>
   </si>
@@ -55,9 +55,6 @@
     <t>Attli and Ginny chase each other</t>
   </si>
   <si>
-    <t>~/Documents/daschland-scripts/data/Multimedia_Data/Video</t>
-  </si>
-  <si>
     <t>VID_001</t>
   </si>
   <si>
@@ -85,7 +82,7 @@
     <t>License List</t>
   </si>
   <si>
-    <t>Date</t>
+    <t>data/Multimedia_Data/Video</t>
   </si>
 </sst>
 </file>
@@ -471,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17D601B5-DC4A-C440-A621-F73CB7198326}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="163" zoomScaleNormal="163" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -483,74 +480,71 @@
     <col min="3" max="3" width="28.1640625" customWidth="1"/>
     <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="52.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="52.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="F1" s="1" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
-        <v>10</v>
+      <c r="F2" t="s">
+        <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" t="s">
-        <v>10</v>
+      <c r="F3" t="s">
+        <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/data/Spreadsheet_Data/Video.xlsx
+++ b/data/Spreadsheet_Data/Video.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{473F35E8-634F-8D4E-955E-E7D40E0B2143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77FEB129-79F2-E24B-873F-6C8F64CD0DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36840" yWindow="6340" windowWidth="39880" windowHeight="20780" xr2:uid="{FB367DDF-D7DA-7347-9072-9090877C5E32}"/>
+    <workbookView xWindow="21960" yWindow="4960" windowWidth="39880" windowHeight="20780" xr2:uid="{FB367DDF-D7DA-7347-9072-9090877C5E32}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t>Label</t>
   </si>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t>File Name</t>
-  </si>
-  <si>
-    <t>Time Stamp</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -468,23 +465,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17D601B5-DC4A-C440-A621-F73CB7198326}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="163" zoomScaleNormal="163" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.1640625" customWidth="1"/>
-    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="52.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -498,53 +494,50 @@
         <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/data/Spreadsheet_Data/Video.xlsx
+++ b/data/Spreadsheet_Data/Video.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77FEB129-79F2-E24B-873F-6C8F64CD0DEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855773CC-50DF-604E-8FA2-1EDA079ABB29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21960" yWindow="4960" windowWidth="39880" windowHeight="20780" xr2:uid="{FB367DDF-D7DA-7347-9072-9090877C5E32}"/>
   </bookViews>
@@ -468,13 +468,13 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="163" zoomScaleNormal="163" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="52.83203125" bestFit="1" customWidth="1"/>

--- a/data/Spreadsheet_Data/Video.xlsx
+++ b/data/Spreadsheet_Data/Video.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{855773CC-50DF-604E-8FA2-1EDA079ABB29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A04E4FB2-2EE3-ED40-B1B8-A574419C4DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21960" yWindow="4960" windowWidth="39880" windowHeight="20780" xr2:uid="{FB367DDF-D7DA-7347-9072-9090877C5E32}"/>
+    <workbookView xWindow="8000" yWindow="4700" windowWidth="39880" windowHeight="20780" xr2:uid="{FB367DDF-D7DA-7347-9072-9090877C5E32}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
     <t>License List</t>
   </si>
   <si>
-    <t>data/Multimedia_Data/Video</t>
+    <t>data/Multimedia_Data/Video/</t>
   </si>
 </sst>
 </file>
@@ -468,7 +468,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="163" zoomScaleNormal="163" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/Spreadsheet_Data/Video.xlsx
+++ b/data/Spreadsheet_Data/Video.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A04E4FB2-2EE3-ED40-B1B8-A574419C4DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383C0945-125D-3545-9BB8-147EC6174F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8000" yWindow="4700" windowWidth="39880" windowHeight="20780" xr2:uid="{FB367DDF-D7DA-7347-9072-9090877C5E32}"/>
   </bookViews>
@@ -43,12 +43,6 @@
     <t>Directory</t>
   </si>
   <si>
-    <t>Atli_Ginny_001.mov</t>
-  </si>
-  <si>
-    <t>Atli_Ginny_002.MOV</t>
-  </si>
-  <si>
     <t>Atli and Ginny run</t>
   </si>
   <si>
@@ -80,6 +74,12 @@
   </si>
   <si>
     <t>data/Multimedia_Data/Video/</t>
+  </si>
+  <si>
+    <t>Atli_Ginny_001.MP4</t>
+  </si>
+  <si>
+    <t>Atli_Ginny_002.MP4</t>
   </si>
 </sst>
 </file>
@@ -468,7 +468,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="163" zoomScaleNormal="163" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -482,16 +482,16 @@
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -502,42 +502,42 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
       <c r="F2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/data/Spreadsheet_Data/Video.xlsx
+++ b/data/Spreadsheet_Data/Video.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C880779F-6A4F-B740-908F-E2C130F3EB00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="18540" yWindow="3440" windowWidth="53380" windowHeight="24760" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -22,46 +27,43 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
-    <t xml:space="preserve">ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">File Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Directory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Label</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copyright</t>
-  </si>
-  <si>
-    <t xml:space="preserve">License List</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Authorship</t>
-  </si>
-  <si>
-    <t xml:space="preserve">URI DaSCH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V_01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VID_AliceInWonderland_1915.mp4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Movie adaptation of the book Alice in Wonderland, dating to 1915. The film combines the chapters from Through the Looking-Glass with those of Alice’s Adventures in Wonderland. However, most of the looking-glass portion is lost.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alice - Viola Savoy
+    <t>ID</t>
+  </si>
+  <si>
+    <t>File Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Cast</t>
+  </si>
+  <si>
+    <t>Directory</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>License List</t>
+  </si>
+  <si>
+    <t>Authorship</t>
+  </si>
+  <si>
+    <t>URI DaSCH</t>
+  </si>
+  <si>
+    <t>V_01</t>
+  </si>
+  <si>
+    <t>VID_AliceInWonderland_1915.mp4</t>
+  </si>
+  <si>
+    <t>Alice - Viola Savoy
 White Rabbit - Herbert Rice
 The Mad Hatter - William Tilden
 The Dormouse - Louis Merkle
@@ -69,53 +71,38 @@
 Alice's Mother - Lotta Savoy</t>
   </si>
   <si>
-    <t xml:space="preserve">data/Multimedia_Data/Video/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alice in Wonderland 1915</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Public Domain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CC0 1.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">W.W. Young (direction and screenplay)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://iiif.rdu-08.dasch.swiss:443/0854/7AV3GvbLGhJ-4cIcaQKrFnq.mp4/file</t>
+    <t>data/Multimedia_Data/Video/</t>
+  </si>
+  <si>
+    <t>Alice in Wonderland 1915</t>
+  </si>
+  <si>
+    <t>Public Domain</t>
+  </si>
+  <si>
+    <t>CC0 1.0</t>
+  </si>
+  <si>
+    <t>W.W. Young (direction and screenplay)</t>
+  </si>
+  <si>
+    <t>https://iiif.rdu-08.dasch.swiss:443/0854/7AV3GvbLGhJ-4cIcaQKrFnq.mp4/file</t>
+  </si>
+  <si>
+    <t>Movie adaptation of the book Alice in Wonderland, dating to 1915. 
+The film combines the chapters from Through the Looking-Glass with those of Alice’s Adventures in Wonderland. 
+However, most of the looking-glass portion is lost.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="Aptos Narrow"/>
-      <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
@@ -127,15 +114,15 @@
       <sz val="12"/>
       <color rgb="FF333333"/>
       <name val="Aptos Narrow"/>
-      <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF0000FF"/>
       <name val="Aptos Narrow"/>
-      <family val="0"/>
-      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Aptos Narrow"/>
     </font>
   </fonts>
   <fills count="3">
@@ -153,99 +140,76 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="a7a7a7"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
         <a:srgbClr val="535353"/>
@@ -254,37 +218,37 @@
         <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="e97132"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="196b24"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0f9ed5"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="a02b93"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4ea72e"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ff"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="ff00ff"/>
+        <a:srgbClr val="FF00FF"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office Theme">
       <a:majorFont>
-        <a:latin typeface="Helvetica Neue" pitchFamily="0" charset="1"/>
-        <a:ea typeface="Helvetica Neue" pitchFamily="0" charset="1"/>
-        <a:cs typeface="Helvetica Neue" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Helvetica Neue" pitchFamily="0" charset="1"/>
-        <a:ea typeface="Helvetica Neue" pitchFamily="0" charset="1"/>
-        <a:cs typeface="Helvetica Neue" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Helvetica Neue"/>
+        <a:ea typeface="Helvetica Neue"/>
+        <a:cs typeface="Helvetica Neue"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -311,7 +275,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -329,7 +293,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -380,7 +344,7 @@
           <a:path path="circle">
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -398,35 +362,37 @@
           <a:path path="circle">
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="170" zoomScaleNormal="170" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.16796875" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="27.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="45.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="21.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="81"/>
+    <col min="2" max="2" width="27.5" customWidth="1"/>
+    <col min="3" max="3" width="101.6640625" customWidth="1"/>
+    <col min="4" max="4" width="51" customWidth="1"/>
+    <col min="5" max="5" width="25" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="7" max="7" width="13.83203125" customWidth="1"/>
+    <col min="9" max="9" width="24.5" customWidth="1"/>
+    <col min="10" max="10" width="81" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -458,47 +424,45 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="87" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:10" ht="87" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="J2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="6" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="3" customFormat="false" ht="152.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="4" customFormat="false" ht="58.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="3" spans="1:10" ht="152.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511805555555556"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.51180555555555596"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
